--- a/d2019_position-METADATA.xlsx
+++ b/d2019_position-METADATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F682DCD3-3E11-4C79-BB7E-521999A07E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9F792048-53A5-4D78-9A24-44CBEB7C9E50}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{F682DCD3-3E11-4C79-BB7E-521999A07E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{81E1EABE-72C3-416F-809F-B3B5A94D0805}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,7 +266,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -294,14 +293,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,16 +588,17 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="59.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="48.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
@@ -624,49 +627,49 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -696,28 +699,28 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1"/>
@@ -727,27 +730,27 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -768,7 +771,7 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -789,7 +792,7 @@
       <c r="H14"/>
     </row>
     <row r="15" spans="1:8" ht="70" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -809,7 +812,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -829,7 +832,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="58.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -849,20 +852,36 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="17"/>
+      <c r="C18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -1091,22 +1110,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78641E9-6B89-49F8-A64B-E70C791B6886}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4901A729-BF60-4E35-96E4-F33CC664023D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C45E3C36-D906-456C-888F-720E462F2C07}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1123,29 +1152,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4901A729-BF60-4E35-96E4-F33CC664023D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78641E9-6B89-49F8-A64B-E70C791B6886}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>